--- a/data/DP2.xlsx
+++ b/data/DP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54E5E5CE-D992-4B69-8200-51669CDD5AAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86A725-5DB7-4F83-A0C2-2AD32E5AB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -563,8 +563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC440CC1-BF40-4550-BEFF-5855F6385518}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -795,7 +795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E05C93-89CB-4394-BF4C-A3AA27B611A2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>

--- a/data/DP2.xlsx
+++ b/data/DP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C86A725-5DB7-4F83-A0C2-2AD32E5AB49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA38E1-0CE4-462F-9CE1-2724B2A43F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -66,85 +66,34 @@
     <t>A</t>
   </si>
   <si>
-    <t>31000.0</t>
-  </si>
-  <si>
-    <t>30000.0</t>
-  </si>
-  <si>
-    <t>32000.0</t>
-  </si>
-  <si>
     <t>Antonio</t>
   </si>
   <si>
-    <t>46000.0</t>
-  </si>
-  <si>
-    <t>48000.0</t>
-  </si>
-  <si>
-    <t>49000.0</t>
-  </si>
-  <si>
     <t>Rebecca</t>
   </si>
   <si>
-    <t>8000.0</t>
-  </si>
-  <si>
-    <t>10000.0</t>
-  </si>
-  <si>
     <t>Ali</t>
   </si>
   <si>
     <t>B</t>
   </si>
   <si>
-    <t>28000.0</t>
-  </si>
-  <si>
-    <t>29000.0</t>
-  </si>
-  <si>
-    <t>25000.0</t>
-  </si>
-  <si>
     <t>Sam</t>
   </si>
   <si>
-    <t>38000.0</t>
-  </si>
-  <si>
-    <t>26000.0</t>
-  </si>
-  <si>
     <t>Viknesh</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>2000.0</t>
-  </si>
-  <si>
     <t>Jon</t>
   </si>
   <si>
     <t>Sarah</t>
   </si>
   <si>
-    <t>41000.0</t>
-  </si>
-  <si>
     <t>Sierra</t>
-  </si>
-  <si>
-    <t>33000.0</t>
-  </si>
-  <si>
-    <t>35000.0</t>
   </si>
   <si>
     <t>Departement</t>
@@ -235,7 +184,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,6 +196,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -563,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC440CC1-BF40-4550-BEFF-5855F6385518}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -573,9 +532,9 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="12.90625" customWidth="1"/>
-    <col min="7" max="7" width="14.6328125" customWidth="1"/>
+    <col min="5" max="5" width="15" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.90625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="14.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.35">
@@ -585,19 +544,19 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
@@ -611,20 +570,20 @@
       <c r="C2" s="3">
         <v>42767</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>11</v>
+      <c r="D2" s="3"/>
+      <c r="E2" s="7">
+        <v>31000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="7">
+        <v>32000</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>8</v>
@@ -632,20 +591,20 @@
       <c r="C3" s="3">
         <v>43274</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
+      <c r="D3" s="3"/>
+      <c r="E3" s="6">
+        <v>46000</v>
+      </c>
+      <c r="F3" s="7">
+        <v>48000</v>
+      </c>
+      <c r="G3" s="7">
+        <v>49000</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
@@ -656,83 +615,83 @@
       <c r="D4" s="3">
         <v>43551</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>8000</v>
+      </c>
+      <c r="G4" s="7">
+        <v>10000</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>42870</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
+      <c r="D5" s="3"/>
+      <c r="E5" s="7">
+        <v>28000</v>
+      </c>
+      <c r="F5" s="7">
+        <v>29000</v>
+      </c>
+      <c r="G5" s="7">
+        <v>25000</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3">
         <v>40575</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
+      <c r="D6" s="3"/>
+      <c r="E6" s="7">
+        <v>38000</v>
+      </c>
+      <c r="F6" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G6" s="7">
+        <v>31000</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>43490</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
+      <c r="D7" s="3"/>
+      <c r="E7" s="7">
+        <v>2000</v>
+      </c>
+      <c r="F7" s="7">
+        <v>25000</v>
+      </c>
+      <c r="G7" s="7">
+        <v>29000</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>41135</v>
@@ -740,50 +699,50 @@
       <c r="D8" s="3">
         <v>41198</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C9" s="3">
         <v>43237</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
+      <c r="D9" s="3"/>
+      <c r="E9" s="7">
+        <v>41000</v>
+      </c>
+      <c r="F9" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G9" s="7">
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C10" s="3">
         <v>42825</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>11</v>
+      <c r="D10" s="3"/>
+      <c r="E10" s="7">
+        <v>33000</v>
+      </c>
+      <c r="F10" s="7">
+        <v>35000</v>
+      </c>
+      <c r="G10" s="7">
+        <v>32000</v>
       </c>
     </row>
   </sheetData>
@@ -795,9 +754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E05C93-89CB-4394-BF4C-A3AA27B611A2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -806,10 +763,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -817,23 +774,23 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/data/DP2.xlsx
+++ b/data/DP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23CA38E1-0CE4-462F-9CE1-2724B2A43F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E4ED8-30DE-4E92-AC9B-A7965ED03467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Name</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Sierra</t>
   </si>
   <si>
-    <t>Departement</t>
-  </si>
-  <si>
     <t>Manager</t>
   </si>
   <si>
@@ -109,6 +106,9 @@
   </si>
   <si>
     <t>Claudia</t>
+  </si>
+  <si>
+    <t>Sales Q1</t>
   </si>
 </sst>
 </file>
@@ -157,7 +157,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -180,11 +180,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -206,6 +217,10 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -520,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC440CC1-BF40-4550-BEFF-5855F6385518}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,9 +550,10 @@
     <col min="5" max="5" width="15" style="5" customWidth="1"/>
     <col min="6" max="6" width="12.90625" style="5" customWidth="1"/>
     <col min="7" max="7" width="14.6328125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,193 +575,242 @@
       <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3">
-        <v>42767</v>
+        <v>40575</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" s="7">
+        <v>38000</v>
+      </c>
+      <c r="F2" s="7">
+        <v>26000</v>
+      </c>
+      <c r="G2" s="7">
         <v>31000</v>
       </c>
-      <c r="F2" s="7">
-        <v>30000</v>
-      </c>
-      <c r="G2" s="7">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="H2" s="10">
+        <f>SUM(E2:G2)</f>
+        <v>95000</v>
+      </c>
+      <c r="I2" t="str">
+        <f>VLOOKUP(Sales!B2,Manager!A$1:B$4,2)</f>
+        <v>Bakti</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>43274</v>
-      </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="6">
-        <v>46000</v>
-      </c>
-      <c r="F3" s="7">
-        <v>48000</v>
-      </c>
-      <c r="G3" s="7">
-        <v>49000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>41135</v>
+      </c>
+      <c r="D3" s="3">
+        <v>41198</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="10">
+        <f t="shared" ref="H3:H10" si="0">SUM(E3:G3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="3">
-        <v>43518</v>
-      </c>
-      <c r="D4" s="3">
-        <v>43551</v>
-      </c>
-      <c r="E4" s="7"/>
+        <v>42767</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7">
+        <v>31000</v>
+      </c>
       <c r="F4" s="7">
-        <v>8000</v>
+        <v>30000</v>
       </c>
       <c r="G4" s="7">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>32000</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3">
-        <v>42870</v>
+        <v>42825</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="7">
-        <v>28000</v>
+        <v>33000</v>
       </c>
       <c r="F5" s="7">
-        <v>29000</v>
+        <v>35000</v>
       </c>
       <c r="G5" s="7">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>32000</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="3">
-        <v>40575</v>
+        <v>42870</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="7">
-        <v>38000</v>
+        <v>28000</v>
       </c>
       <c r="F6" s="7">
-        <v>26000</v>
+        <v>29000</v>
       </c>
       <c r="G6" s="7">
-        <v>31000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>25000</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="0"/>
+        <v>82000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="3">
-        <v>43490</v>
+        <v>43237</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="7">
-        <v>2000</v>
+        <v>41000</v>
       </c>
       <c r="F7" s="7">
-        <v>25000</v>
+        <v>26000</v>
       </c>
       <c r="G7" s="7">
-        <v>29000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>30000</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="0"/>
+        <v>97000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
-        <v>41135</v>
-      </c>
-      <c r="D8" s="3">
-        <v>41198</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>43274</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="6">
+        <v>46000</v>
+      </c>
+      <c r="F8" s="7">
+        <v>48000</v>
+      </c>
+      <c r="G8" s="7">
+        <v>49000</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="0"/>
+        <v>143000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="3">
-        <v>43237</v>
+        <v>43490</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="7">
-        <v>41000</v>
+        <v>2000</v>
       </c>
       <c r="F9" s="7">
-        <v>26000</v>
+        <v>25000</v>
       </c>
       <c r="G9" s="7">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+        <v>29000</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="0"/>
+        <v>56000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3">
-        <v>42825</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="7">
-        <v>33000</v>
-      </c>
+        <v>43518</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43551</v>
+      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>35000</v>
+        <v>8000</v>
       </c>
       <c r="G10" s="7">
-        <v>32000</v>
+        <v>10000</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="0"/>
+        <v>18000</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G11">
+    <sortCondition ref="C1:C11"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -754,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E05C93-89CB-4394-BF4C-A3AA27B611A2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -763,10 +828,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -774,7 +839,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -782,7 +847,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
@@ -790,7 +855,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/DP2.xlsx
+++ b/data/DP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Py_JNE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00E4ED8-30DE-4E92-AC9B-A7965ED03467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F608FC-4A10-40AE-BE61-070AABF91304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{47E1B9F3-CDB7-4335-9CDC-2FD038CC4499}"/>
   </bookViews>
   <sheets>
     <sheet name="Sales" sheetId="1" r:id="rId1"/>
@@ -537,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC440CC1-BF40-4550-BEFF-5855F6385518}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -819,7 +819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E05C93-89CB-4394-BF4C-A3AA27B611A2}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
